--- a/data/trans_bre/P57_AF_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Edad-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeAdic</t>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P57_AF_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P57_AF_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,74%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 11,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,0; 7,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,31; 5,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,38; 18,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 22,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,41; 14,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,96; 8,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,55; 59,01</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,25%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,9; 3,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,55; 14,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,92; 3,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,39; 0,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,48; 6,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,47; 25,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,92; 4,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,66; 0,99</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,39%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; 4,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,44; 5,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,64; 4,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,17; 3,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,02; 8,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,91; 8,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,44; 6,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,13; 6,52</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,59%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,75; 5,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,36; 14,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,94; 5,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 16,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,55; 9,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,12; 23,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,97; 8,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 39,1</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 9,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,24; 16,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 10,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 6,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,49; 15,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,35; 30,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 15,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,55; 11,68</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; 3,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; 5,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,17; 11,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 16,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,27; 5,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,74; 8,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,06; 16,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 26,06</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,97%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 3,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,64; 7,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 4,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 8,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 5,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,16; 12,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 5,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 15,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_AF_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>20,71%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 18,99</t>
+          <t>-3,98; 19,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 59,01</t>
+          <t>-10,09; 67,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,8</t>
+          <t>-12,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,25%</t>
+          <t>-23,31%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 0,49</t>
+          <t>-29,12; -2,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,66; 0,99</t>
+          <t>-52,4; -5,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,39%</t>
+          <t>-2,98%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 3,48</t>
+          <t>-7,0; 3,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 6,52</t>
+          <t>-11,72; 7,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>37,4%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 16,83</t>
+          <t>-2,86; 37,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 39,1</t>
+          <t>-5,05; 174,98</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 6,97</t>
+          <t>-2,58; 7,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 11,68</t>
+          <t>-4,06; 12,53</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>12,03</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,42%</t>
+          <t>-4,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>19,4%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 3,34</t>
+          <t>-10,0; 4,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 5,62</t>
+          <t>-4,0; 11,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,17; 11,92</t>
+          <t>2,27; 15,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 16,29</t>
+          <t>-2,84; 30,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 5,04</t>
+          <t>-14,02; 6,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 8,56</t>
+          <t>-5,66; 17,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,06; 16,69</t>
+          <t>3,02; 23,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 26,06</t>
+          <t>-4,52; 52,76</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>-3,49%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>-4,33%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,77%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-10,22; 5,94</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-10,7; 5,23</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 11,87</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 8,7</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-13,49; 8,54</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-14,17; 7,93</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 16,2</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; 13,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,89</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6,43</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7,9%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-1,87; 3,01</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,64; 7,37</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,05; 4,17</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,04; 8,36</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 22,18</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-3,0; 5,09</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>4,16; 12,19</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0,07; 5,69</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 15,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 52,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P57_AF_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 11,12</t>
+          <t>-1,76; 10,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 7,78</t>
+          <t>-5,84; 7,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 5,63</t>
+          <t>-7,98; 5,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 19,83</t>
+          <t>-3,69; 18,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 22,88</t>
+          <t>-3,2; 22,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 14,97</t>
+          <t>-9,8; 14,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 8,53</t>
+          <t>-11,05; 8,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 67,03</t>
+          <t>-9,12; 63,49</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 3,81</t>
+          <t>-6,6; 4,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 14,06</t>
+          <t>2,43; 13,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 3,54</t>
+          <t>-6,75; 3,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,12; -2,73</t>
+          <t>-30,58; -3,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 6,67</t>
+          <t>-10,7; 7,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 25,92</t>
+          <t>4,33; 24,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 4,96</t>
+          <t>-8,69; 4,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,4; -5,74</t>
+          <t>-53,47; -5,95</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 4,75</t>
+          <t>-6,63; 4,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 5,15</t>
+          <t>-5,16; 5,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 4,34</t>
+          <t>-5,58; 4,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 3,74</t>
+          <t>-7,56; 4,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 8,02</t>
+          <t>-10,58; 6,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 8,24</t>
+          <t>-7,61; 8,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 6,13</t>
+          <t>-7,37; 6,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 7,34</t>
+          <t>-12,6; 8,33</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 5,76</t>
+          <t>-7,39; 5,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 14,21</t>
+          <t>3,26; 14,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 5,98</t>
+          <t>-4,04; 5,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 37,1</t>
+          <t>-2,71; 40,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 9,8</t>
+          <t>-11,17; 8,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 23,49</t>
+          <t>4,99; 24,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 8,24</t>
+          <t>-5,12; 7,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 174,98</t>
+          <t>-4,71; 215,23</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 9,3</t>
+          <t>-4,43; 8,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 16,79</t>
+          <t>3,05; 16,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 10,91</t>
+          <t>-1,02; 10,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 7,3</t>
+          <t>-3,03; 6,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 15,6</t>
+          <t>-6,66; 14,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 30,9</t>
+          <t>4,83; 29,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 15,8</t>
+          <t>-1,35; 14,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 12,53</t>
+          <t>-4,67; 11,38</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 4,42</t>
+          <t>-9,66; 4,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 11,2</t>
+          <t>-3,82; 10,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,27; 15,61</t>
+          <t>1,57; 14,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 30,68</t>
+          <t>-2,7; 29,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 6,9</t>
+          <t>-13,56; 7,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 17,83</t>
+          <t>-5,26; 16,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 23,13</t>
+          <t>2,23; 21,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 52,76</t>
+          <t>-4,12; 51,18</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 5,94</t>
+          <t>-10,81; 5,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 5,23</t>
+          <t>-11,01; 4,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 11,87</t>
+          <t>-0,06; 12,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 8,7</t>
+          <t>-2,71; 8,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 8,54</t>
+          <t>-13,84; 7,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 7,93</t>
+          <t>-14,61; 7,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 16,2</t>
+          <t>-0,19; 16,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 13,76</t>
+          <t>-3,8; 13,12</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 3,01</t>
+          <t>-2,01; 2,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,37</t>
+          <t>2,51; 7,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,05; 4,17</t>
+          <t>0,09; 4,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,48; 22,18</t>
+          <t>0,33; 19,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 5,09</t>
+          <t>-3,27; 5,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,16; 12,19</t>
+          <t>3,94; 12,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,69</t>
+          <t>0,11; 5,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,01; 52,62</t>
+          <t>0,28; 47,02</t>
         </is>
       </c>
     </row>
